--- a/syntax analyzer/SLR.xlsx
+++ b/syntax analyzer/SLR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayunlee/Desktop/Compiler_Term_Project_CAU/syntax analyzer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A1CAC8-09C1-644F-8B45-8AA5428A963E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B90FAE-7F39-A24B-92CE-DFDDB552019E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{36C34CD8-E5F6-1E40-BBAF-FCB52B6B4B67}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{36C34CD8-E5F6-1E40-BBAF-FCB52B6B4B67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -602,7 +602,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,14 +633,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -782,13 +776,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,27 +902,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -853,6 +918,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1169,74 +1288,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F220D51D-29A8-9C45-93A2-EDEDD9CB60D8}">
-  <dimension ref="B1:AT90"/>
+  <dimension ref="A1:AT106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="30" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AR4" sqref="AR4"/>
+      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30"/>
   <cols>
-    <col min="1" max="45" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.7109375" style="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="26" width="10.7109375" style="1"/>
+    <col min="27" max="27" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="10.7109375" style="1"/>
+    <col min="31" max="31" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="10.7109375" style="1"/>
+    <col min="35" max="35" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="10.7109375" style="1"/>
+    <col min="40" max="40" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.7109375" style="1" customWidth="1"/>
+    <col min="44" max="45" width="10.7109375" style="1"/>
     <col min="46" max="46" width="103.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" ht="31" thickBot="1"/>
-    <row r="2" spans="2:46">
-      <c r="B2" s="16" t="s">
+    <row r="1" spans="1:46" ht="30" customHeight="1" thickBot="1">
+      <c r="A1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="27"/>
+    </row>
+    <row r="2" spans="1:46">
+      <c r="A2" s="28"/>
+      <c r="B2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="19" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="20"/>
-    </row>
-    <row r="3" spans="2:46">
-      <c r="B3" s="17"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="28"/>
+    </row>
+    <row r="3" spans="1:46">
+      <c r="A3" s="28"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1300,10 +1488,10 @@
       <c r="W3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="23" t="s">
         <v>61</v>
       </c>
       <c r="Z3" s="3" t="s">
@@ -1357,8 +1545,10 @@
       <c r="AP3" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="2:46">
+      <c r="AQ3" s="28"/>
+    </row>
+    <row r="4" spans="1:46">
+      <c r="A4" s="28"/>
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -1416,8 +1606,10 @@
         <v>4</v>
       </c>
       <c r="AP4" s="7"/>
-    </row>
-    <row r="5" spans="2:46">
+      <c r="AQ4" s="28"/>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="A5" s="28"/>
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -1463,8 +1655,10 @@
       <c r="AN5" s="6"/>
       <c r="AO5" s="6"/>
       <c r="AP5" s="7"/>
-    </row>
-    <row r="6" spans="2:46">
+      <c r="AQ5" s="28"/>
+    </row>
+    <row r="6" spans="1:46">
+      <c r="A6" s="28"/>
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -1522,8 +1716,10 @@
         <v>4</v>
       </c>
       <c r="AP6" s="7"/>
-    </row>
-    <row r="7" spans="2:46">
+      <c r="AQ6" s="28"/>
+    </row>
+    <row r="7" spans="1:46">
+      <c r="A7" s="28"/>
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -1581,8 +1777,10 @@
         <v>4</v>
       </c>
       <c r="AP7" s="7"/>
-    </row>
-    <row r="8" spans="2:46">
+      <c r="AQ7" s="28"/>
+    </row>
+    <row r="8" spans="1:46">
+      <c r="A8" s="28"/>
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -1640,9 +1838,11 @@
         <v>4</v>
       </c>
       <c r="AP8" s="7"/>
+      <c r="AQ8" s="28"/>
       <c r="AT8" s="8"/>
     </row>
-    <row r="9" spans="2:46">
+    <row r="9" spans="1:46">
+      <c r="A9" s="28"/>
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -1690,8 +1890,10 @@
       <c r="AN9" s="6"/>
       <c r="AO9" s="6"/>
       <c r="AP9" s="7"/>
-    </row>
-    <row r="10" spans="2:46">
+      <c r="AQ9" s="28"/>
+    </row>
+    <row r="10" spans="1:46">
+      <c r="A10" s="28"/>
       <c r="B10" s="5">
         <v>6</v>
       </c>
@@ -1737,8 +1939,10 @@
       <c r="AN10" s="6"/>
       <c r="AO10" s="6"/>
       <c r="AP10" s="7"/>
-    </row>
-    <row r="11" spans="2:46">
+      <c r="AQ10" s="28"/>
+    </row>
+    <row r="11" spans="1:46">
+      <c r="A11" s="28"/>
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -1784,8 +1988,10 @@
       <c r="AN11" s="6"/>
       <c r="AO11" s="6"/>
       <c r="AP11" s="7"/>
-    </row>
-    <row r="12" spans="2:46">
+      <c r="AQ11" s="28"/>
+    </row>
+    <row r="12" spans="1:46">
+      <c r="A12" s="28"/>
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -1831,12 +2037,14 @@
       <c r="AN12" s="6"/>
       <c r="AO12" s="6"/>
       <c r="AP12" s="7"/>
-      <c r="AS12" s="21" t="s">
+      <c r="AQ12" s="28"/>
+      <c r="AS12" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="AT12" s="21"/>
-    </row>
-    <row r="13" spans="2:46">
+      <c r="AT12" s="14"/>
+    </row>
+    <row r="13" spans="1:46">
+      <c r="A13" s="28"/>
       <c r="B13" s="5">
         <v>9</v>
       </c>
@@ -1882,6 +2090,7 @@
       <c r="AN13" s="6"/>
       <c r="AO13" s="6"/>
       <c r="AP13" s="7"/>
+      <c r="AQ13" s="28"/>
       <c r="AS13" s="1">
         <v>0</v>
       </c>
@@ -1889,7 +2098,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="2:46">
+    <row r="14" spans="1:46">
+      <c r="A14" s="28"/>
       <c r="B14" s="5">
         <v>10</v>
       </c>
@@ -1939,6 +2149,7 @@
       <c r="AN14" s="6"/>
       <c r="AO14" s="6"/>
       <c r="AP14" s="7"/>
+      <c r="AQ14" s="28"/>
       <c r="AS14" s="1">
         <v>1</v>
       </c>
@@ -1946,7 +2157,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:46">
+    <row r="15" spans="1:46">
+      <c r="A15" s="28"/>
       <c r="B15" s="5">
         <v>11</v>
       </c>
@@ -1992,6 +2204,7 @@
       <c r="AN15" s="6"/>
       <c r="AO15" s="6"/>
       <c r="AP15" s="7"/>
+      <c r="AQ15" s="28"/>
       <c r="AS15" s="1">
         <v>2</v>
       </c>
@@ -1999,7 +2212,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:46">
+    <row r="16" spans="1:46">
+      <c r="A16" s="28"/>
       <c r="B16" s="5">
         <v>12</v>
       </c>
@@ -2045,6 +2259,7 @@
       <c r="AN16" s="6"/>
       <c r="AO16" s="6"/>
       <c r="AP16" s="7"/>
+      <c r="AQ16" s="28"/>
       <c r="AS16" s="1">
         <v>3</v>
       </c>
@@ -2052,7 +2267,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:46">
+    <row r="17" spans="1:46">
+      <c r="A17" s="28"/>
       <c r="B17" s="5">
         <v>13</v>
       </c>
@@ -2112,6 +2328,7 @@
       <c r="AN17" s="6"/>
       <c r="AO17" s="6"/>
       <c r="AP17" s="7"/>
+      <c r="AQ17" s="28"/>
       <c r="AS17" s="1">
         <v>4</v>
       </c>
@@ -2119,7 +2336,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="2:46">
+    <row r="18" spans="1:46">
+      <c r="A18" s="28"/>
       <c r="B18" s="5">
         <v>14</v>
       </c>
@@ -2169,6 +2387,7 @@
       <c r="AN18" s="6"/>
       <c r="AO18" s="6"/>
       <c r="AP18" s="7"/>
+      <c r="AQ18" s="28"/>
       <c r="AS18" s="1">
         <v>5</v>
       </c>
@@ -2176,7 +2395,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:46">
+    <row r="19" spans="1:46">
+      <c r="A19" s="28"/>
       <c r="B19" s="5">
         <v>15</v>
       </c>
@@ -2240,6 +2460,7 @@
       <c r="AN19" s="6"/>
       <c r="AO19" s="6"/>
       <c r="AP19" s="7"/>
+      <c r="AQ19" s="28"/>
       <c r="AS19" s="1">
         <v>6</v>
       </c>
@@ -2247,7 +2468,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:46">
+    <row r="20" spans="1:46">
+      <c r="A20" s="28"/>
       <c r="B20" s="5">
         <v>16</v>
       </c>
@@ -2307,6 +2529,7 @@
       <c r="AN20" s="6"/>
       <c r="AO20" s="6"/>
       <c r="AP20" s="7"/>
+      <c r="AQ20" s="28"/>
       <c r="AS20" s="1">
         <v>7</v>
       </c>
@@ -2314,7 +2537,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:46">
+    <row r="21" spans="1:46">
+      <c r="A21" s="28"/>
       <c r="B21" s="5">
         <v>17</v>
       </c>
@@ -2368,6 +2592,7 @@
       <c r="AP21" s="7">
         <v>30</v>
       </c>
+      <c r="AQ21" s="28"/>
       <c r="AS21" s="1">
         <v>8</v>
       </c>
@@ -2375,7 +2600,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:46">
+    <row r="22" spans="1:46">
+      <c r="A22" s="28"/>
       <c r="B22" s="5">
         <v>18</v>
       </c>
@@ -2421,6 +2647,7 @@
       <c r="AN22" s="6"/>
       <c r="AO22" s="6"/>
       <c r="AP22" s="7"/>
+      <c r="AQ22" s="28"/>
       <c r="AS22" s="1">
         <v>9</v>
       </c>
@@ -2428,7 +2655,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:46">
+    <row r="23" spans="1:46">
+      <c r="A23" s="28"/>
       <c r="B23" s="5">
         <v>19</v>
       </c>
@@ -2474,6 +2702,7 @@
       <c r="AN23" s="6"/>
       <c r="AO23" s="6"/>
       <c r="AP23" s="7"/>
+      <c r="AQ23" s="28"/>
       <c r="AS23" s="1">
         <v>10</v>
       </c>
@@ -2481,7 +2710,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:46">
+    <row r="24" spans="1:46">
+      <c r="A24" s="28"/>
       <c r="B24" s="5">
         <v>20</v>
       </c>
@@ -2527,6 +2757,7 @@
       <c r="AN24" s="6"/>
       <c r="AO24" s="6"/>
       <c r="AP24" s="7"/>
+      <c r="AQ24" s="28"/>
       <c r="AS24" s="1">
         <v>11</v>
       </c>
@@ -2534,7 +2765,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:46">
+    <row r="25" spans="1:46">
+      <c r="A25" s="28"/>
       <c r="B25" s="5">
         <v>21</v>
       </c>
@@ -2580,6 +2812,7 @@
       <c r="AN25" s="6"/>
       <c r="AO25" s="6"/>
       <c r="AP25" s="7"/>
+      <c r="AQ25" s="28"/>
       <c r="AS25" s="1">
         <v>12</v>
       </c>
@@ -2587,7 +2820,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:46">
+    <row r="26" spans="1:46">
+      <c r="A26" s="28"/>
       <c r="B26" s="5">
         <v>22</v>
       </c>
@@ -2633,6 +2867,7 @@
       <c r="AN26" s="6"/>
       <c r="AO26" s="6"/>
       <c r="AP26" s="7"/>
+      <c r="AQ26" s="28"/>
       <c r="AS26" s="1">
         <v>13</v>
       </c>
@@ -2640,7 +2875,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:46">
+    <row r="27" spans="1:46">
+      <c r="A27" s="28"/>
       <c r="B27" s="5">
         <v>23</v>
       </c>
@@ -2686,6 +2922,7 @@
       <c r="AN27" s="6"/>
       <c r="AO27" s="6"/>
       <c r="AP27" s="7"/>
+      <c r="AQ27" s="28"/>
       <c r="AS27" s="1">
         <v>14</v>
       </c>
@@ -2693,7 +2930,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:46">
+    <row r="28" spans="1:46">
+      <c r="A28" s="28"/>
       <c r="B28" s="5">
         <v>24</v>
       </c>
@@ -2739,6 +2977,7 @@
       <c r="AN28" s="6"/>
       <c r="AO28" s="6"/>
       <c r="AP28" s="7"/>
+      <c r="AQ28" s="28"/>
       <c r="AS28" s="1">
         <v>15</v>
       </c>
@@ -2746,7 +2985,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:46">
+    <row r="29" spans="1:46">
+      <c r="A29" s="28"/>
       <c r="B29" s="5">
         <v>25</v>
       </c>
@@ -2796,6 +3036,7 @@
       <c r="AN29" s="6"/>
       <c r="AO29" s="6"/>
       <c r="AP29" s="7"/>
+      <c r="AQ29" s="28"/>
       <c r="AS29" s="1">
         <v>16</v>
       </c>
@@ -2803,7 +3044,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:46">
+    <row r="30" spans="1:46">
+      <c r="A30" s="28"/>
       <c r="B30" s="5">
         <v>26</v>
       </c>
@@ -2855,6 +3097,7 @@
       <c r="AN30" s="6"/>
       <c r="AO30" s="6"/>
       <c r="AP30" s="7"/>
+      <c r="AQ30" s="28"/>
       <c r="AS30" s="1">
         <v>17</v>
       </c>
@@ -2862,7 +3105,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="2:46">
+    <row r="31" spans="1:46">
+      <c r="A31" s="28"/>
       <c r="B31" s="5">
         <v>27</v>
       </c>
@@ -2918,6 +3162,7 @@
       <c r="AN31" s="6"/>
       <c r="AO31" s="6"/>
       <c r="AP31" s="7"/>
+      <c r="AQ31" s="28"/>
       <c r="AS31" s="1">
         <v>18</v>
       </c>
@@ -2925,7 +3170,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="2:46">
+    <row r="32" spans="1:46">
+      <c r="A32" s="28"/>
       <c r="B32" s="5">
         <v>28</v>
       </c>
@@ -2979,6 +3225,7 @@
       <c r="AN32" s="6"/>
       <c r="AO32" s="6"/>
       <c r="AP32" s="7"/>
+      <c r="AQ32" s="28"/>
       <c r="AS32" s="1">
         <v>19</v>
       </c>
@@ -2986,7 +3233,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:46">
+    <row r="33" spans="1:46">
+      <c r="A33" s="28"/>
       <c r="B33" s="5">
         <v>29</v>
       </c>
@@ -3040,6 +3288,7 @@
       <c r="AN33" s="6"/>
       <c r="AO33" s="6"/>
       <c r="AP33" s="7"/>
+      <c r="AQ33" s="28"/>
       <c r="AS33" s="1">
         <v>20</v>
       </c>
@@ -3047,7 +3296,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="2:46">
+    <row r="34" spans="1:46">
+      <c r="A34" s="28"/>
       <c r="B34" s="5">
         <v>30</v>
       </c>
@@ -3093,6 +3343,7 @@
       <c r="AN34" s="6"/>
       <c r="AO34" s="6"/>
       <c r="AP34" s="7"/>
+      <c r="AQ34" s="28"/>
       <c r="AS34" s="1">
         <v>21</v>
       </c>
@@ -3100,7 +3351,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="2:46">
+    <row r="35" spans="1:46">
+      <c r="A35" s="28"/>
       <c r="B35" s="5">
         <v>31</v>
       </c>
@@ -3154,6 +3406,7 @@
       <c r="AP35" s="7">
         <v>39</v>
       </c>
+      <c r="AQ35" s="28"/>
       <c r="AS35" s="1">
         <v>22</v>
       </c>
@@ -3161,7 +3414,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="2:46">
+    <row r="36" spans="1:46">
+      <c r="A36" s="28"/>
       <c r="B36" s="5">
         <v>32</v>
       </c>
@@ -3215,6 +3469,7 @@
       <c r="AP36" s="7">
         <v>40</v>
       </c>
+      <c r="AQ36" s="28"/>
       <c r="AS36" s="1">
         <v>23</v>
       </c>
@@ -3222,7 +3477,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="2:46">
+    <row r="37" spans="1:46">
+      <c r="A37" s="28"/>
       <c r="B37" s="5">
         <v>33</v>
       </c>
@@ -3268,6 +3524,7 @@
       <c r="AN37" s="6"/>
       <c r="AO37" s="6"/>
       <c r="AP37" s="7"/>
+      <c r="AQ37" s="28"/>
       <c r="AS37" s="1">
         <v>24</v>
       </c>
@@ -3275,7 +3532,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:46">
+    <row r="38" spans="1:46">
+      <c r="A38" s="28"/>
       <c r="B38" s="5">
         <v>34</v>
       </c>
@@ -3325,6 +3583,7 @@
       <c r="AN38" s="6"/>
       <c r="AO38" s="6"/>
       <c r="AP38" s="7"/>
+      <c r="AQ38" s="28"/>
       <c r="AS38" s="1">
         <v>25</v>
       </c>
@@ -3332,7 +3591,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="2:46">
+    <row r="39" spans="1:46">
+      <c r="A39" s="28"/>
       <c r="B39" s="5">
         <v>35</v>
       </c>
@@ -3388,6 +3648,7 @@
       <c r="AN39" s="6"/>
       <c r="AO39" s="6"/>
       <c r="AP39" s="7"/>
+      <c r="AQ39" s="28"/>
       <c r="AS39" s="1">
         <v>26</v>
       </c>
@@ -3395,7 +3656,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="2:46">
+    <row r="40" spans="1:46">
+      <c r="A40" s="28"/>
       <c r="B40" s="5">
         <v>36</v>
       </c>
@@ -3449,6 +3711,7 @@
       <c r="AN40" s="6"/>
       <c r="AO40" s="6"/>
       <c r="AP40" s="7"/>
+      <c r="AQ40" s="28"/>
       <c r="AS40" s="1">
         <v>27</v>
       </c>
@@ -3456,7 +3719,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="2:46">
+    <row r="41" spans="1:46">
+      <c r="A41" s="28"/>
       <c r="B41" s="5">
         <v>37</v>
       </c>
@@ -3502,6 +3766,7 @@
       <c r="AN41" s="6"/>
       <c r="AO41" s="6"/>
       <c r="AP41" s="7"/>
+      <c r="AQ41" s="28"/>
       <c r="AS41" s="1">
         <v>28</v>
       </c>
@@ -3509,7 +3774,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="2:46">
+    <row r="42" spans="1:46">
+      <c r="A42" s="28"/>
       <c r="B42" s="5">
         <v>38</v>
       </c>
@@ -3559,6 +3825,7 @@
       <c r="AN42" s="6"/>
       <c r="AO42" s="6"/>
       <c r="AP42" s="7"/>
+      <c r="AQ42" s="28"/>
       <c r="AS42" s="1">
         <v>29</v>
       </c>
@@ -3566,7 +3833,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="2:46">
+    <row r="43" spans="1:46">
+      <c r="A43" s="28"/>
       <c r="B43" s="5">
         <v>39</v>
       </c>
@@ -3612,6 +3880,7 @@
       <c r="AN43" s="6"/>
       <c r="AO43" s="6"/>
       <c r="AP43" s="7"/>
+      <c r="AQ43" s="28"/>
       <c r="AS43" s="1">
         <v>30</v>
       </c>
@@ -3619,7 +3888,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="2:46">
+    <row r="44" spans="1:46">
+      <c r="A44" s="28"/>
       <c r="B44" s="5">
         <v>40</v>
       </c>
@@ -3665,6 +3935,7 @@
       <c r="AN44" s="6"/>
       <c r="AO44" s="6"/>
       <c r="AP44" s="7"/>
+      <c r="AQ44" s="28"/>
       <c r="AS44" s="1">
         <v>31</v>
       </c>
@@ -3672,7 +3943,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="2:46">
+    <row r="45" spans="1:46">
+      <c r="A45" s="28"/>
       <c r="B45" s="5">
         <v>41</v>
       </c>
@@ -3736,6 +4008,7 @@
       <c r="AN45" s="6"/>
       <c r="AO45" s="6"/>
       <c r="AP45" s="7"/>
+      <c r="AQ45" s="28"/>
       <c r="AS45" s="1">
         <v>32</v>
       </c>
@@ -3743,7 +4016,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="2:46">
+    <row r="46" spans="1:46">
+      <c r="A46" s="28"/>
       <c r="B46" s="5">
         <v>42</v>
       </c>
@@ -3789,6 +4063,7 @@
       <c r="AN46" s="6"/>
       <c r="AO46" s="6"/>
       <c r="AP46" s="7"/>
+      <c r="AQ46" s="28"/>
       <c r="AS46" s="1">
         <v>33</v>
       </c>
@@ -3796,7 +4071,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="2:46">
+    <row r="47" spans="1:46">
+      <c r="A47" s="28"/>
       <c r="B47" s="5">
         <v>43</v>
       </c>
@@ -3842,6 +4118,7 @@
       <c r="AN47" s="6"/>
       <c r="AO47" s="6"/>
       <c r="AP47" s="7"/>
+      <c r="AQ47" s="28"/>
       <c r="AS47" s="1">
         <v>34</v>
       </c>
@@ -3849,7 +4126,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="2:46">
+    <row r="48" spans="1:46">
+      <c r="A48" s="28"/>
       <c r="B48" s="5">
         <v>44</v>
       </c>
@@ -3897,6 +4175,7 @@
       <c r="AN48" s="6"/>
       <c r="AO48" s="6"/>
       <c r="AP48" s="7"/>
+      <c r="AQ48" s="28"/>
       <c r="AS48" s="1">
         <v>35</v>
       </c>
@@ -3904,7 +4183,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:46">
+    <row r="49" spans="1:46">
+      <c r="A49" s="28"/>
       <c r="B49" s="5">
         <v>45</v>
       </c>
@@ -3954,6 +4234,7 @@
       <c r="AN49" s="6"/>
       <c r="AO49" s="6"/>
       <c r="AP49" s="7"/>
+      <c r="AQ49" s="28"/>
       <c r="AS49" s="1">
         <v>36</v>
       </c>
@@ -3961,7 +4242,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:46">
+    <row r="50" spans="1:46">
+      <c r="A50" s="28"/>
       <c r="B50" s="5">
         <v>46</v>
       </c>
@@ -4015,6 +4297,7 @@
       <c r="AN50" s="6"/>
       <c r="AO50" s="6"/>
       <c r="AP50" s="7"/>
+      <c r="AQ50" s="28"/>
       <c r="AS50" s="1">
         <v>37</v>
       </c>
@@ -4022,7 +4305,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="2:46">
+    <row r="51" spans="1:46">
+      <c r="A51" s="28"/>
       <c r="B51" s="5">
         <v>47</v>
       </c>
@@ -4070,6 +4354,7 @@
       </c>
       <c r="AO51" s="6"/>
       <c r="AP51" s="7"/>
+      <c r="AQ51" s="28"/>
       <c r="AS51" s="1">
         <v>38</v>
       </c>
@@ -4077,7 +4362,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="2:46">
+    <row r="52" spans="1:46">
+      <c r="A52" s="28"/>
       <c r="B52" s="5">
         <v>48</v>
       </c>
@@ -4141,8 +4427,10 @@
       <c r="AN52" s="6"/>
       <c r="AO52" s="6"/>
       <c r="AP52" s="7"/>
-    </row>
-    <row r="53" spans="2:46">
+      <c r="AQ52" s="28"/>
+    </row>
+    <row r="53" spans="1:46">
+      <c r="A53" s="28"/>
       <c r="B53" s="5">
         <v>49</v>
       </c>
@@ -4198,8 +4486,10 @@
       <c r="AN53" s="6"/>
       <c r="AO53" s="6"/>
       <c r="AP53" s="7"/>
-    </row>
-    <row r="54" spans="2:46">
+      <c r="AQ53" s="28"/>
+    </row>
+    <row r="54" spans="1:46">
+      <c r="A54" s="28"/>
       <c r="B54" s="5">
         <v>50</v>
       </c>
@@ -4245,8 +4535,10 @@
       <c r="AN54" s="6"/>
       <c r="AO54" s="6"/>
       <c r="AP54" s="7"/>
-    </row>
-    <row r="55" spans="2:46">
+      <c r="AQ54" s="28"/>
+    </row>
+    <row r="55" spans="1:46">
+      <c r="A55" s="28"/>
       <c r="B55" s="5">
         <v>51</v>
       </c>
@@ -4292,8 +4584,10 @@
       <c r="AN55" s="6"/>
       <c r="AO55" s="6"/>
       <c r="AP55" s="7"/>
-    </row>
-    <row r="56" spans="2:46">
+      <c r="AQ55" s="28"/>
+    </row>
+    <row r="56" spans="1:46">
+      <c r="A56" s="28"/>
       <c r="B56" s="5">
         <v>52</v>
       </c>
@@ -4339,8 +4633,10 @@
       <c r="AN56" s="6"/>
       <c r="AO56" s="6"/>
       <c r="AP56" s="7"/>
-    </row>
-    <row r="57" spans="2:46">
+      <c r="AQ56" s="28"/>
+    </row>
+    <row r="57" spans="1:46">
+      <c r="A57" s="28"/>
       <c r="B57" s="5">
         <v>53</v>
       </c>
@@ -4388,8 +4684,10 @@
       <c r="AN57" s="6"/>
       <c r="AO57" s="6"/>
       <c r="AP57" s="7"/>
-    </row>
-    <row r="58" spans="2:46">
+      <c r="AQ57" s="28"/>
+    </row>
+    <row r="58" spans="1:46">
+      <c r="A58" s="28"/>
       <c r="B58" s="5">
         <v>54</v>
       </c>
@@ -4435,8 +4733,10 @@
       <c r="AN58" s="6"/>
       <c r="AO58" s="6"/>
       <c r="AP58" s="7"/>
-    </row>
-    <row r="59" spans="2:46">
+      <c r="AQ58" s="28"/>
+    </row>
+    <row r="59" spans="1:46">
+      <c r="A59" s="28"/>
       <c r="B59" s="5">
         <v>55</v>
       </c>
@@ -4482,8 +4782,10 @@
       <c r="AN59" s="6"/>
       <c r="AO59" s="6"/>
       <c r="AP59" s="7"/>
-    </row>
-    <row r="60" spans="2:46">
+      <c r="AQ59" s="28"/>
+    </row>
+    <row r="60" spans="1:46">
+      <c r="A60" s="28"/>
       <c r="B60" s="5">
         <v>56</v>
       </c>
@@ -4529,8 +4831,10 @@
       <c r="AN60" s="6"/>
       <c r="AO60" s="6"/>
       <c r="AP60" s="7"/>
-    </row>
-    <row r="61" spans="2:46">
+      <c r="AQ60" s="28"/>
+    </row>
+    <row r="61" spans="1:46">
+      <c r="A61" s="28"/>
       <c r="B61" s="5">
         <v>57</v>
       </c>
@@ -4594,8 +4898,10 @@
       <c r="AN61" s="6"/>
       <c r="AO61" s="6"/>
       <c r="AP61" s="7"/>
-    </row>
-    <row r="62" spans="2:46">
+      <c r="AQ61" s="28"/>
+    </row>
+    <row r="62" spans="1:46">
+      <c r="A62" s="28"/>
       <c r="B62" s="5">
         <v>58</v>
       </c>
@@ -4643,8 +4949,10 @@
       <c r="AN62" s="6"/>
       <c r="AO62" s="6"/>
       <c r="AP62" s="7"/>
-    </row>
-    <row r="63" spans="2:46">
+      <c r="AQ62" s="28"/>
+    </row>
+    <row r="63" spans="1:46">
+      <c r="A63" s="28"/>
       <c r="B63" s="5">
         <v>59</v>
       </c>
@@ -4700,8 +5008,10 @@
       <c r="AN63" s="6"/>
       <c r="AO63" s="6"/>
       <c r="AP63" s="7"/>
-    </row>
-    <row r="64" spans="2:46">
+      <c r="AQ63" s="28"/>
+    </row>
+    <row r="64" spans="1:46">
+      <c r="A64" s="28"/>
       <c r="B64" s="5">
         <v>60</v>
       </c>
@@ -4757,8 +5067,10 @@
       <c r="AN64" s="6"/>
       <c r="AO64" s="6"/>
       <c r="AP64" s="7"/>
-    </row>
-    <row r="65" spans="2:42">
+      <c r="AQ64" s="28"/>
+    </row>
+    <row r="65" spans="1:43">
+      <c r="A65" s="28"/>
       <c r="B65" s="5">
         <v>61</v>
       </c>
@@ -4814,8 +5126,10 @@
       <c r="AN65" s="6"/>
       <c r="AO65" s="6"/>
       <c r="AP65" s="7"/>
-    </row>
-    <row r="66" spans="2:42">
+      <c r="AQ65" s="28"/>
+    </row>
+    <row r="66" spans="1:43">
+      <c r="A66" s="28"/>
       <c r="B66" s="5">
         <v>62</v>
       </c>
@@ -4863,8 +5177,10 @@
       <c r="AN66" s="6"/>
       <c r="AO66" s="6"/>
       <c r="AP66" s="7"/>
-    </row>
-    <row r="67" spans="2:42">
+      <c r="AQ66" s="28"/>
+    </row>
+    <row r="67" spans="1:43">
+      <c r="A67" s="28"/>
       <c r="B67" s="5">
         <v>63</v>
       </c>
@@ -4914,8 +5230,10 @@
       <c r="AN67" s="6"/>
       <c r="AO67" s="6"/>
       <c r="AP67" s="7"/>
-    </row>
-    <row r="68" spans="2:42">
+      <c r="AQ67" s="28"/>
+    </row>
+    <row r="68" spans="1:43">
+      <c r="A68" s="28"/>
       <c r="B68" s="5">
         <v>64</v>
       </c>
@@ -4967,8 +5285,10 @@
       <c r="AN68" s="6"/>
       <c r="AO68" s="6"/>
       <c r="AP68" s="7"/>
-    </row>
-    <row r="69" spans="2:42">
+      <c r="AQ68" s="28"/>
+    </row>
+    <row r="69" spans="1:43">
+      <c r="A69" s="28"/>
       <c r="B69" s="5">
         <v>65</v>
       </c>
@@ -5014,8 +5334,10 @@
       <c r="AN69" s="6"/>
       <c r="AO69" s="6"/>
       <c r="AP69" s="7"/>
-    </row>
-    <row r="70" spans="2:42">
+      <c r="AQ69" s="28"/>
+    </row>
+    <row r="70" spans="1:43">
+      <c r="A70" s="28"/>
       <c r="B70" s="5">
         <v>66</v>
       </c>
@@ -5061,8 +5383,10 @@
       <c r="AN70" s="6"/>
       <c r="AO70" s="6"/>
       <c r="AP70" s="7"/>
-    </row>
-    <row r="71" spans="2:42">
+      <c r="AQ70" s="28"/>
+    </row>
+    <row r="71" spans="1:43">
+      <c r="A71" s="28"/>
       <c r="B71" s="5">
         <v>67</v>
       </c>
@@ -5108,8 +5432,10 @@
       <c r="AN71" s="6"/>
       <c r="AO71" s="6"/>
       <c r="AP71" s="7"/>
-    </row>
-    <row r="72" spans="2:42">
+      <c r="AQ71" s="28"/>
+    </row>
+    <row r="72" spans="1:43">
+      <c r="A72" s="28"/>
       <c r="B72" s="5">
         <v>68</v>
       </c>
@@ -5155,8 +5481,10 @@
       <c r="AN72" s="6"/>
       <c r="AO72" s="6"/>
       <c r="AP72" s="7"/>
-    </row>
-    <row r="73" spans="2:42">
+      <c r="AQ72" s="28"/>
+    </row>
+    <row r="73" spans="1:43">
+      <c r="A73" s="28"/>
       <c r="B73" s="5">
         <v>69</v>
       </c>
@@ -5202,8 +5530,10 @@
       <c r="AN73" s="6"/>
       <c r="AO73" s="6"/>
       <c r="AP73" s="7"/>
-    </row>
-    <row r="74" spans="2:42">
+      <c r="AQ73" s="28"/>
+    </row>
+    <row r="74" spans="1:43">
+      <c r="A74" s="28"/>
       <c r="B74" s="5">
         <v>70</v>
       </c>
@@ -5249,8 +5579,10 @@
       <c r="AN74" s="6"/>
       <c r="AO74" s="6"/>
       <c r="AP74" s="7"/>
-    </row>
-    <row r="75" spans="2:42">
+      <c r="AQ74" s="28"/>
+    </row>
+    <row r="75" spans="1:43">
+      <c r="A75" s="28"/>
       <c r="B75" s="5">
         <v>71</v>
       </c>
@@ -5296,8 +5628,10 @@
       <c r="AN75" s="6"/>
       <c r="AO75" s="6"/>
       <c r="AP75" s="7"/>
-    </row>
-    <row r="76" spans="2:42">
+      <c r="AQ75" s="28"/>
+    </row>
+    <row r="76" spans="1:43">
+      <c r="A76" s="28"/>
       <c r="B76" s="5">
         <v>72</v>
       </c>
@@ -5343,8 +5677,10 @@
       <c r="AN76" s="6"/>
       <c r="AO76" s="6"/>
       <c r="AP76" s="7"/>
-    </row>
-    <row r="77" spans="2:42">
+      <c r="AQ76" s="28"/>
+    </row>
+    <row r="77" spans="1:43">
+      <c r="A77" s="28"/>
       <c r="B77" s="5">
         <v>73</v>
       </c>
@@ -5396,8 +5732,10 @@
       <c r="AN77" s="6"/>
       <c r="AO77" s="6"/>
       <c r="AP77" s="7"/>
-    </row>
-    <row r="78" spans="2:42">
+      <c r="AQ77" s="28"/>
+    </row>
+    <row r="78" spans="1:43">
+      <c r="A78" s="28"/>
       <c r="B78" s="5">
         <v>74</v>
       </c>
@@ -5443,8 +5781,10 @@
       <c r="AN78" s="6"/>
       <c r="AO78" s="6"/>
       <c r="AP78" s="7"/>
-    </row>
-    <row r="79" spans="2:42">
+      <c r="AQ78" s="28"/>
+    </row>
+    <row r="79" spans="1:43">
+      <c r="A79" s="28"/>
       <c r="B79" s="5">
         <v>75</v>
       </c>
@@ -5508,8 +5848,10 @@
       <c r="AN79" s="6"/>
       <c r="AO79" s="6"/>
       <c r="AP79" s="7"/>
-    </row>
-    <row r="80" spans="2:42">
+      <c r="AQ79" s="28"/>
+    </row>
+    <row r="80" spans="1:43">
+      <c r="A80" s="28"/>
       <c r="B80" s="5">
         <v>76</v>
       </c>
@@ -5555,8 +5897,10 @@
       <c r="AN80" s="6"/>
       <c r="AO80" s="6"/>
       <c r="AP80" s="7"/>
-    </row>
-    <row r="81" spans="2:42">
+      <c r="AQ80" s="28"/>
+    </row>
+    <row r="81" spans="1:43">
+      <c r="A81" s="28"/>
       <c r="B81" s="5">
         <v>77</v>
       </c>
@@ -5620,8 +5964,10 @@
       <c r="AN81" s="6"/>
       <c r="AO81" s="6"/>
       <c r="AP81" s="7"/>
-    </row>
-    <row r="82" spans="2:42">
+      <c r="AQ81" s="28"/>
+    </row>
+    <row r="82" spans="1:43">
+      <c r="A82" s="28"/>
       <c r="B82" s="5">
         <v>78</v>
       </c>
@@ -5667,8 +6013,10 @@
       <c r="AN82" s="6"/>
       <c r="AO82" s="6"/>
       <c r="AP82" s="7"/>
-    </row>
-    <row r="83" spans="2:42">
+      <c r="AQ82" s="28"/>
+    </row>
+    <row r="83" spans="1:43">
+      <c r="A83" s="28"/>
       <c r="B83" s="5">
         <v>79</v>
       </c>
@@ -5714,8 +6062,10 @@
       <c r="AN83" s="6"/>
       <c r="AO83" s="6"/>
       <c r="AP83" s="7"/>
-    </row>
-    <row r="84" spans="2:42">
+      <c r="AQ83" s="28"/>
+    </row>
+    <row r="84" spans="1:43">
+      <c r="A84" s="28"/>
       <c r="B84" s="5">
         <v>80</v>
       </c>
@@ -5775,8 +6125,10 @@
       <c r="AN84" s="6"/>
       <c r="AO84" s="6"/>
       <c r="AP84" s="7"/>
-    </row>
-    <row r="85" spans="2:42">
+      <c r="AQ84" s="28"/>
+    </row>
+    <row r="85" spans="1:43">
+      <c r="A85" s="28"/>
       <c r="B85" s="5">
         <v>81</v>
       </c>
@@ -5832,8 +6184,10 @@
       <c r="AN85" s="6"/>
       <c r="AO85" s="6"/>
       <c r="AP85" s="7"/>
-    </row>
-    <row r="86" spans="2:42">
+      <c r="AQ85" s="28"/>
+    </row>
+    <row r="86" spans="1:43">
+      <c r="A86" s="28"/>
       <c r="B86" s="5">
         <v>82</v>
       </c>
@@ -5889,222 +6243,348 @@
       <c r="AN86" s="6"/>
       <c r="AO86" s="6"/>
       <c r="AP86" s="7"/>
-    </row>
-    <row r="87" spans="2:42">
-      <c r="B87" s="5">
+      <c r="AQ86" s="28"/>
+    </row>
+    <row r="87" spans="1:43" s="18" customFormat="1">
+      <c r="A87" s="29"/>
+      <c r="B87" s="15">
         <v>83</v>
       </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6" t="s">
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="6"/>
-      <c r="W87" s="6"/>
-      <c r="X87" s="7"/>
-      <c r="Y87" s="6"/>
-      <c r="Z87" s="6"/>
-      <c r="AA87" s="6"/>
-      <c r="AB87" s="6"/>
-      <c r="AC87" s="6"/>
-      <c r="AD87" s="6"/>
-      <c r="AE87" s="6"/>
-      <c r="AF87" s="6"/>
-      <c r="AG87" s="6"/>
-      <c r="AH87" s="6"/>
-      <c r="AI87" s="6"/>
-      <c r="AJ87" s="6"/>
-      <c r="AK87" s="6"/>
-      <c r="AL87" s="6"/>
-      <c r="AM87" s="6"/>
-      <c r="AN87" s="6"/>
-      <c r="AO87" s="6"/>
-      <c r="AP87" s="7"/>
-    </row>
-    <row r="88" spans="2:42" s="12" customFormat="1">
-      <c r="B88" s="13">
+      <c r="P87" s="16"/>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="16"/>
+      <c r="S87" s="16"/>
+      <c r="T87" s="16"/>
+      <c r="U87" s="16"/>
+      <c r="V87" s="16"/>
+      <c r="W87" s="16"/>
+      <c r="X87" s="17"/>
+      <c r="Y87" s="16"/>
+      <c r="Z87" s="16"/>
+      <c r="AA87" s="16"/>
+      <c r="AB87" s="16"/>
+      <c r="AC87" s="16"/>
+      <c r="AD87" s="16"/>
+      <c r="AE87" s="16"/>
+      <c r="AF87" s="16"/>
+      <c r="AG87" s="16"/>
+      <c r="AH87" s="16"/>
+      <c r="AI87" s="16"/>
+      <c r="AJ87" s="16"/>
+      <c r="AK87" s="16"/>
+      <c r="AL87" s="16"/>
+      <c r="AM87" s="16"/>
+      <c r="AN87" s="16"/>
+      <c r="AO87" s="16"/>
+      <c r="AP87" s="17"/>
+      <c r="AQ87" s="29"/>
+    </row>
+    <row r="88" spans="1:43" s="18" customFormat="1">
+      <c r="A88" s="29"/>
+      <c r="B88" s="15">
         <v>84</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D88" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
-      <c r="P88" s="14" t="s">
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="Q88" s="14"/>
-      <c r="R88" s="14" t="s">
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="S88" s="14" t="s">
+      <c r="S88" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="T88" s="14"/>
-      <c r="U88" s="14"/>
-      <c r="V88" s="14" t="s">
+      <c r="T88" s="16"/>
+      <c r="U88" s="16"/>
+      <c r="V88" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="W88" s="14"/>
-      <c r="X88" s="15"/>
-      <c r="Y88" s="14"/>
-      <c r="Z88" s="14"/>
-      <c r="AA88" s="14">
+      <c r="W88" s="16"/>
+      <c r="X88" s="17"/>
+      <c r="Y88" s="16"/>
+      <c r="Z88" s="16"/>
+      <c r="AA88" s="16">
         <v>49</v>
       </c>
-      <c r="AB88" s="14">
+      <c r="AB88" s="16">
         <v>50</v>
       </c>
-      <c r="AC88" s="14"/>
-      <c r="AD88" s="14"/>
-      <c r="AE88" s="14"/>
-      <c r="AF88" s="14"/>
-      <c r="AG88" s="14"/>
-      <c r="AH88" s="14"/>
-      <c r="AI88" s="14"/>
-      <c r="AJ88" s="14">
+      <c r="AC88" s="16"/>
+      <c r="AD88" s="16"/>
+      <c r="AE88" s="16"/>
+      <c r="AF88" s="16"/>
+      <c r="AG88" s="16"/>
+      <c r="AH88" s="16"/>
+      <c r="AI88" s="16"/>
+      <c r="AJ88" s="16">
         <v>85</v>
       </c>
-      <c r="AK88" s="14">
+      <c r="AK88" s="16">
         <v>48</v>
       </c>
-      <c r="AL88" s="14"/>
-      <c r="AM88" s="14"/>
-      <c r="AN88" s="14"/>
-      <c r="AO88" s="14"/>
-      <c r="AP88" s="15"/>
-    </row>
-    <row r="89" spans="2:42" s="12" customFormat="1">
-      <c r="B89" s="13">
+      <c r="AL88" s="16"/>
+      <c r="AM88" s="16"/>
+      <c r="AN88" s="16"/>
+      <c r="AO88" s="16"/>
+      <c r="AP88" s="17"/>
+      <c r="AQ88" s="29"/>
+    </row>
+    <row r="89" spans="1:43" s="18" customFormat="1">
+      <c r="A89" s="29"/>
+      <c r="B89" s="15">
         <v>85</v>
       </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
-      <c r="O89" s="14"/>
-      <c r="P89" s="14" t="s">
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="Q89" s="14"/>
-      <c r="R89" s="14"/>
-      <c r="S89" s="14"/>
-      <c r="T89" s="14"/>
-      <c r="U89" s="14"/>
-      <c r="V89" s="14"/>
-      <c r="W89" s="14"/>
-      <c r="X89" s="15"/>
-      <c r="Y89" s="14"/>
-      <c r="Z89" s="14"/>
-      <c r="AA89" s="14"/>
-      <c r="AB89" s="14"/>
-      <c r="AC89" s="14"/>
-      <c r="AD89" s="14"/>
-      <c r="AE89" s="14"/>
-      <c r="AF89" s="14"/>
-      <c r="AG89" s="14"/>
-      <c r="AH89" s="14"/>
-      <c r="AI89" s="14"/>
-      <c r="AJ89" s="14"/>
-      <c r="AK89" s="14"/>
-      <c r="AL89" s="14"/>
-      <c r="AM89" s="14"/>
-      <c r="AN89" s="14"/>
-      <c r="AO89" s="14"/>
-      <c r="AP89" s="15"/>
-    </row>
-    <row r="90" spans="2:42" s="12" customFormat="1" ht="31" thickBot="1">
-      <c r="B90" s="9">
+      <c r="Q89" s="16"/>
+      <c r="R89" s="16"/>
+      <c r="S89" s="16"/>
+      <c r="T89" s="16"/>
+      <c r="U89" s="16"/>
+      <c r="V89" s="16"/>
+      <c r="W89" s="16"/>
+      <c r="X89" s="17"/>
+      <c r="Y89" s="16"/>
+      <c r="Z89" s="16"/>
+      <c r="AA89" s="16"/>
+      <c r="AB89" s="16"/>
+      <c r="AC89" s="16"/>
+      <c r="AD89" s="16"/>
+      <c r="AE89" s="16"/>
+      <c r="AF89" s="16"/>
+      <c r="AG89" s="16"/>
+      <c r="AH89" s="16"/>
+      <c r="AI89" s="16"/>
+      <c r="AJ89" s="16"/>
+      <c r="AK89" s="16"/>
+      <c r="AL89" s="16"/>
+      <c r="AM89" s="16"/>
+      <c r="AN89" s="16"/>
+      <c r="AO89" s="16"/>
+      <c r="AP89" s="17"/>
+      <c r="AQ89" s="29"/>
+    </row>
+    <row r="90" spans="1:43" s="18" customFormat="1" ht="31" thickBot="1">
+      <c r="A90" s="29"/>
+      <c r="B90" s="19">
         <v>86</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10"/>
-      <c r="O90" s="10"/>
-      <c r="P90" s="10" t="s">
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="20"/>
+      <c r="P90" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="Q90" s="10"/>
-      <c r="R90" s="10" t="s">
+      <c r="Q90" s="20"/>
+      <c r="R90" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="S90" s="10" t="s">
+      <c r="S90" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="T90" s="10"/>
-      <c r="U90" s="10"/>
-      <c r="V90" s="10" t="s">
+      <c r="T90" s="20"/>
+      <c r="U90" s="20"/>
+      <c r="V90" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="W90" s="10"/>
-      <c r="X90" s="11"/>
-      <c r="Y90" s="10"/>
-      <c r="Z90" s="10"/>
-      <c r="AA90" s="10"/>
-      <c r="AB90" s="10"/>
-      <c r="AC90" s="10"/>
-      <c r="AD90" s="10"/>
-      <c r="AE90" s="10"/>
-      <c r="AF90" s="10"/>
-      <c r="AG90" s="10"/>
-      <c r="AH90" s="10"/>
-      <c r="AI90" s="10"/>
-      <c r="AJ90" s="10"/>
-      <c r="AK90" s="10"/>
-      <c r="AL90" s="10"/>
-      <c r="AM90" s="10"/>
-      <c r="AN90" s="10"/>
-      <c r="AO90" s="10"/>
-      <c r="AP90" s="11"/>
+      <c r="W90" s="20"/>
+      <c r="X90" s="21"/>
+      <c r="Y90" s="20"/>
+      <c r="Z90" s="20"/>
+      <c r="AA90" s="20"/>
+      <c r="AB90" s="20"/>
+      <c r="AC90" s="20"/>
+      <c r="AD90" s="20"/>
+      <c r="AE90" s="20"/>
+      <c r="AF90" s="20"/>
+      <c r="AG90" s="20"/>
+      <c r="AH90" s="20"/>
+      <c r="AI90" s="20"/>
+      <c r="AJ90" s="20"/>
+      <c r="AK90" s="20"/>
+      <c r="AL90" s="20"/>
+      <c r="AM90" s="20"/>
+      <c r="AN90" s="20"/>
+      <c r="AO90" s="20"/>
+      <c r="AP90" s="21"/>
+      <c r="AQ90" s="29"/>
+    </row>
+    <row r="91" spans="1:43">
+      <c r="A91" s="31"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="26"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="26"/>
+      <c r="R91" s="26"/>
+      <c r="S91" s="26"/>
+      <c r="T91" s="26"/>
+      <c r="U91" s="26"/>
+      <c r="V91" s="26"/>
+      <c r="W91" s="26"/>
+      <c r="X91" s="26"/>
+      <c r="Y91" s="26"/>
+      <c r="Z91" s="26"/>
+      <c r="AA91" s="26"/>
+      <c r="AB91" s="26"/>
+      <c r="AC91" s="26"/>
+      <c r="AD91" s="26"/>
+      <c r="AE91" s="26"/>
+      <c r="AF91" s="26"/>
+      <c r="AG91" s="26"/>
+      <c r="AH91" s="26"/>
+      <c r="AI91" s="26"/>
+      <c r="AJ91" s="26"/>
+      <c r="AK91" s="26"/>
+      <c r="AL91" s="26"/>
+      <c r="AM91" s="26"/>
+      <c r="AN91" s="26"/>
+      <c r="AO91" s="26"/>
+      <c r="AP91" s="26"/>
+      <c r="AQ91" s="32"/>
+    </row>
+    <row r="98" spans="11:16">
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+    </row>
+    <row r="99" spans="11:16">
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+    </row>
+    <row r="100" spans="11:16">
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+    </row>
+    <row r="101" spans="11:16">
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+    </row>
+    <row r="102" spans="11:16">
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+    </row>
+    <row r="103" spans="11:16">
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+    </row>
+    <row r="104" spans="11:16">
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+    </row>
+    <row r="105" spans="11:16">
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+    </row>
+    <row r="106" spans="11:16">
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6115,5 +6595,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>